--- a/tests/fixtures/test_cover_letters.xlsx
+++ b/tests/fixtures/test_cover_letters.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,12 +478,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Preston-Hughes</t>
+          <t>Miller, Davis and Wright</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Paediatric nurse</t>
+          <t>Music therapist</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,19 +493,13 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>karen04@example.com</t>
+          <t>xjuarez@example.org</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Cover Letter Template.docx</t>
         </is>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>44893.20224537037</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>44893.20224537037</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -517,12 +511,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kennedy, Medina and Payne</t>
+          <t>Smith-Ortega</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Development worker, international aid</t>
+          <t>Camera operator</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>mackjennifer@example.com</t>
+          <t>ddickerson@example.org</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -541,10 +535,10 @@
         </is>
       </c>
       <c r="G3" s="1" t="n">
-        <v>44893.20177083334</v>
+        <v>44893.21666666667</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44893.20177083334</v>
+        <v>44893.21666666667</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -556,12 +550,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Miller-Vega</t>
+          <t>Thomas Ltd</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operational researcher</t>
+          <t>Accountant, chartered</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -571,7 +565,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>jennifer44@example.com</t>
+          <t>michelle80@example.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -580,10 +574,10 @@
         </is>
       </c>
       <c r="G4" s="1" t="n">
-        <v>44893.20215277778</v>
+        <v>44893.21722222222</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44893.20215277778</v>
+        <v>44893.21722222222</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -595,12 +589,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sanders-Davis</t>
+          <t>Wood, Hammond and Anderson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hotel manager</t>
+          <t>Ceramics designer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -610,7 +604,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>jacksonbrian@example.org</t>
+          <t>felicia81@example.org</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -619,10 +613,10 @@
         </is>
       </c>
       <c r="G5" s="1" t="n">
-        <v>44893.20164351852</v>
+        <v>44893.21690972222</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>44893.20164351852</v>
+        <v>44893.21690972222</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -634,12 +628,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prince Inc</t>
+          <t>York, Smith and Soto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Teacher, music</t>
+          <t>Lecturer, higher education</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -649,7 +643,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>moralescynthia@example.net</t>
+          <t>iwalters@example.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -658,10 +652,10 @@
         </is>
       </c>
       <c r="G6" s="1" t="n">
-        <v>44893.20185185185</v>
+        <v>44893.21667824074</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>44893.20185185185</v>
+        <v>44893.21667824074</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -673,12 +667,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stuart PLC</t>
+          <t>Hudson and Sons</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Meteorologist</t>
+          <t>Mechanical engineer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -688,13 +682,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>davisryan@example.com</t>
+          <t>dawsondavid@example.com</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Cover Letter Template.docx</t>
         </is>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>44893.21694444444</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>44893.21694444444</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -706,12 +706,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gross, Brennan and Webster</t>
+          <t>Elliott-Ware</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Clinical cytogeneticist</t>
+          <t>Scientist, biomedical</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>armstrongmelissa@example.com</t>
+          <t>fpierce@example.net</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Livingston and Sons</t>
+          <t>Richardson, Mckay and Avery</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engineer, civil (contracting)</t>
+          <t>Psychologist, sport and exercise</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>kaitlynbrooks@example.net</t>
+          <t>nmyers@example.net</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Martin-Sanchez</t>
+          <t>Porter, Meyer and Alvarez</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Education officer, environmental</t>
+          <t>Arboriculturist</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>kimberly91@example.org</t>
+          <t>lisa10@example.org</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hudson, Clarke and Morrison</t>
+          <t>Elliott and Sons</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Programmer, applications</t>
+          <t>Airline pilot</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>bholmes@example.com</t>
+          <t>daymelinda@example.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -838,12 +838,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Velasquez, Singleton and Garcia</t>
+          <t>Charles, Tate and Smith</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Runner, broadcasting/film/video</t>
+          <t>Herpetologist</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ronald54@example.net</t>
+          <t>wendygriffin@example.net</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -862,6 +862,1383 @@
         </is>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Stewart Inc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chief Marketing Officer</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>lisa68@example.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Garcia, Griffin and Gonzalez</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mining engineer</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>george38@example.org</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>44893.21722222222</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>44893.21722222222</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hodge-Martinez</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Heritage manager</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>irivera@example.net</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>44893.21716435185</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>44893.21716435185</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Wise, Espinoza and Trevino</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Retail buyer</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>annetteyang@example.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>44893.21675925926</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>44893.21675925926</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brown Inc</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Multimedia specialist</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>halltyler@example.net</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>44893.21685185185</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>44893.21685185185</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>19</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Francis Group</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Geophysical data processor</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>michael81@example.org</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>44893.2165625</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>44893.2165625</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Smith-Farmer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Analytical chemist</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>meadowsbryan@example.org</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hill-Wells</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Animal nutritionist</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>elizabethtorres@example.org</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ortiz-Christensen</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Geophysical data processor</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>caitlinschneider@example.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>23</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Leblanc, Alvarez and Davis</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Psychologist, occupational</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>patrick03@example.net</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Maldonado and Sons</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Scientist, marine</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>sdaniels@example.net</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>25</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Page-Arnold</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>General practice doctor</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>michellethornton@example.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Brown, Oconnor and Warren</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Social worker</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>stephanie77@example.org</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Riddle, Sherman and Avery</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Engineer, production</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>qnorman@example.net</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jacobs, Miller and Jimenez</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Clinical research associate</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>egibbs@example.net</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>King-Compton</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Drilling engineer</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>hoffmandavid@example.org</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Carroll-Marshall</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Hospital doctor</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>michelle82@example.org</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Santos, Fitzgerald and Morris</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Buyer, retail</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>john76@example.org</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>44893.21666666667</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>44893.21666666667</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Baird-Sullivan</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Secondary school teacher</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>kurtpacheco@example.net</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>44893.21658564815</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>44893.21658564815</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ritter Ltd</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Financial planner</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>hurleyjames@example.org</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>44893.21686342593</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>44893.21686342593</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Guerrero, Ellis and Moreno</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Field trials officer</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>collinstimothy@example.org</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>44893.21721064814</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>44893.21721064814</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bailey Inc</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Legal secretary</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>catherinestevenson@example.net</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>44893.2165625</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>44893.2165625</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Clark-Pace</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Horticultural consultant</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>wevans@example.com</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Patel LLC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Environmental health practitioner</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ujones@example.net</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>40</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Brown-Davis</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Orthoptist</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>zdaniels@example.net</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Miller PLC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Company secretary</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>andrew26@example.org</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Barrett, Landry and Bush</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Multimedia programmer</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>pamelasanders@example.net</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Werner Inc</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Soil scientist</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>kristin52@example.net</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>46</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Turner Inc</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Garment/textile technologist</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>simmonsmichele@example.com</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>44893.21835648148</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>44893.21835648148</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>47</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Morales, Olson and Chambers</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Barista</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>dawnwilson@example.net</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>44893.21839120371</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>44893.21839120371</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>48</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Santos, Young and Robinson</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Psychologist, educational</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>qhansen@example.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>44893.21887731482</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>44893.21887731482</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>49</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Bolton, Morgan and Caldwell</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Designer, furniture</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>mackpaula@example.org</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>44893.21884259259</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>44893.21884259259</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>50</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Holland-Williams</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Surveyor, quantity</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>faithharrison@example.org</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>44893.2184837963</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>44893.2184837963</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>51</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Montgomery Inc</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Interior and spatial designer</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>jason72@example.com</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Price Inc</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Scientist, water quality</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>brittany59@example.org</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Young, Mccall and Palmer</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Data processing manager</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>byrdsierra@example.net</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Porter, Warner and Gallagher</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>IT trainer</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>smithchad@example.net</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Green-James</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Network engineer</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>lsanchez@example.net</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Huerta-Morton</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Engineer, drilling</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Dear Hiring manager</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>bishopjeffrey@example.net</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Cover Letter Template.docx</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
         <v>0</v>
       </c>
     </row>
